--- a/Code/Results/Cases/Case_6_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_52/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015340573912847</v>
+        <v>1.015340573912845</v>
       </c>
       <c r="D2">
-        <v>1.031430424937267</v>
+        <v>1.031430424937265</v>
       </c>
       <c r="E2">
-        <v>1.026045210568279</v>
+        <v>1.026045210568276</v>
       </c>
       <c r="F2">
-        <v>1.033826144452304</v>
+        <v>1.033826144452302</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053701395645134</v>
+        <v>1.053701395645133</v>
       </c>
       <c r="J2">
-        <v>1.037071936090535</v>
+        <v>1.037071936090533</v>
       </c>
       <c r="K2">
-        <v>1.042468584397562</v>
+        <v>1.04246858439756</v>
       </c>
       <c r="L2">
-        <v>1.037153238097079</v>
+        <v>1.037153238097077</v>
       </c>
       <c r="M2">
-        <v>1.044833514160462</v>
+        <v>1.04483351416046</v>
       </c>
       <c r="N2">
-        <v>1.038544697193597</v>
+        <v>1.038544697193595</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024602083663606</v>
+        <v>1.024602083663607</v>
       </c>
       <c r="D3">
-        <v>1.038654665522407</v>
+        <v>1.038654665522409</v>
       </c>
       <c r="E3">
-        <v>1.034253269132834</v>
+        <v>1.034253269132835</v>
       </c>
       <c r="F3">
-        <v>1.042382185132187</v>
+        <v>1.042382185132189</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057113153093699</v>
+        <v>1.0571131530937</v>
       </c>
       <c r="J3">
-        <v>1.044443821927681</v>
+        <v>1.044443821927683</v>
       </c>
       <c r="K3">
-        <v>1.048815734873505</v>
+        <v>1.048815734873507</v>
       </c>
       <c r="L3">
-        <v>1.044465857627982</v>
+        <v>1.044465857627983</v>
       </c>
       <c r="M3">
-        <v>1.052500043558031</v>
+        <v>1.052500043558032</v>
       </c>
       <c r="N3">
-        <v>1.0459270519542</v>
+        <v>1.045927051954201</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030377815010266</v>
+        <v>1.030377815010265</v>
       </c>
       <c r="D4">
-        <v>1.043161753659398</v>
+        <v>1.043161753659397</v>
       </c>
       <c r="E4">
-        <v>1.039374044197842</v>
+        <v>1.039374044197841</v>
       </c>
       <c r="F4">
-        <v>1.047723519724044</v>
+        <v>1.047723519724043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059224849967956</v>
+        <v>1.059224849967955</v>
       </c>
       <c r="J4">
-        <v>1.049035129266939</v>
+        <v>1.049035129266938</v>
       </c>
       <c r="K4">
-        <v>1.05276573404677</v>
+        <v>1.052765734046768</v>
       </c>
       <c r="L4">
-        <v>1.049019395143478</v>
+        <v>1.049019395143477</v>
       </c>
       <c r="M4">
-        <v>1.05727816178976</v>
+        <v>1.057278161789758</v>
       </c>
       <c r="N4">
-        <v>1.050524879476509</v>
+        <v>1.050524879476508</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032757519231672</v>
+        <v>1.032757519231671</v>
       </c>
       <c r="D5">
         <v>1.045019055020091</v>
       </c>
       <c r="E5">
-        <v>1.041484277303184</v>
+        <v>1.041484277303183</v>
       </c>
       <c r="F5">
-        <v>1.049925468125426</v>
+        <v>1.049925468125425</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060091000716667</v>
+        <v>1.060091000716666</v>
       </c>
       <c r="J5">
-        <v>1.050925315281822</v>
+        <v>1.050925315281821</v>
       </c>
       <c r="K5">
-        <v>1.054391125702183</v>
+        <v>1.054391125702182</v>
       </c>
       <c r="L5">
         <v>1.050893822310906</v>
       </c>
       <c r="M5">
-        <v>1.059246033863808</v>
+        <v>1.059246033863807</v>
       </c>
       <c r="N5">
-        <v>1.052417749772341</v>
+        <v>1.05241774977234</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,13 +585,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033154339503827</v>
+        <v>1.033154339503828</v>
       </c>
       <c r="D6">
         <v>1.04532877734245</v>
       </c>
       <c r="E6">
-        <v>1.041836182568044</v>
+        <v>1.041836182568045</v>
       </c>
       <c r="F6">
         <v>1.050292716272079</v>
@@ -603,7 +603,7 @@
         <v>1.060235201150276</v>
       </c>
       <c r="J6">
-        <v>1.051240416314362</v>
+        <v>1.051240416314363</v>
       </c>
       <c r="K6">
         <v>1.054662037944309</v>
@@ -612,10 +612,10 @@
         <v>1.05120628387121</v>
       </c>
       <c r="M6">
-        <v>1.059574130866312</v>
+        <v>1.059574130866313</v>
       </c>
       <c r="N6">
-        <v>1.05273329828449</v>
+        <v>1.052733298284491</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,16 +626,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030409798544029</v>
+        <v>1.03040979854403</v>
       </c>
       <c r="D7">
-        <v>1.043186715020413</v>
+        <v>1.043186715020414</v>
       </c>
       <c r="E7">
-        <v>1.039402404611922</v>
+        <v>1.039402404611923</v>
       </c>
       <c r="F7">
-        <v>1.047753109484368</v>
+        <v>1.047753109484369</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -644,16 +644,16 @@
         <v>1.0592365067222</v>
       </c>
       <c r="J7">
-        <v>1.049060539707952</v>
+        <v>1.049060539707953</v>
       </c>
       <c r="K7">
-        <v>1.05278758788167</v>
+        <v>1.052787587881671</v>
       </c>
       <c r="L7">
-        <v>1.049044594567333</v>
+        <v>1.049044594567335</v>
       </c>
       <c r="M7">
-        <v>1.057304613523857</v>
+        <v>1.057304613523858</v>
       </c>
       <c r="N7">
         <v>1.050550326003264</v>
@@ -673,7 +673,7 @@
         <v>1.033908234093495</v>
       </c>
       <c r="E8">
-        <v>1.028860518278171</v>
+        <v>1.028860518278172</v>
       </c>
       <c r="F8">
         <v>1.036760069171826</v>
@@ -691,7 +691,7 @@
         <v>1.044647680076464</v>
       </c>
       <c r="L8">
-        <v>1.039663246771237</v>
+        <v>1.039663246771238</v>
       </c>
       <c r="M8">
         <v>1.047464101308392</v>
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9957164761508555</v>
+        <v>0.9957164761508537</v>
       </c>
       <c r="D9">
-        <v>1.016141142633308</v>
+        <v>1.016141142633306</v>
       </c>
       <c r="E9">
-        <v>1.008669897738786</v>
+        <v>1.008669897738785</v>
       </c>
       <c r="F9">
-        <v>1.015734261400371</v>
+        <v>1.01573426140037</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046385068470888</v>
+        <v>1.046385068470887</v>
       </c>
       <c r="J9">
-        <v>1.021421408781744</v>
+        <v>1.021421408781742</v>
       </c>
       <c r="K9">
-        <v>1.028977658857005</v>
+        <v>1.028977658857004</v>
       </c>
       <c r="L9">
-        <v>1.021623860738723</v>
+        <v>1.021623860738722</v>
       </c>
       <c r="M9">
-        <v>1.028577116864916</v>
+        <v>1.028577116864914</v>
       </c>
       <c r="N9">
-        <v>1.022871944340887</v>
+        <v>1.022871944340885</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9789721097823023</v>
+        <v>0.9789721097823014</v>
       </c>
       <c r="D10">
-        <v>1.003122412130383</v>
+        <v>1.003122412130382</v>
       </c>
       <c r="E10">
-        <v>0.9938668780589781</v>
+        <v>0.993866878058977</v>
       </c>
       <c r="F10">
-        <v>1.000339353519277</v>
+        <v>1.000339353519276</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -770,16 +770,16 @@
         <v>1.008045595224347</v>
       </c>
       <c r="K10">
-        <v>1.017435518388599</v>
+        <v>1.017435518388598</v>
       </c>
       <c r="L10">
-        <v>1.008347757959677</v>
+        <v>1.008347757959676</v>
       </c>
       <c r="M10">
-        <v>1.014702483535342</v>
+        <v>1.014702483535341</v>
       </c>
       <c r="N10">
-        <v>1.009477135594012</v>
+        <v>1.009477135594011</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9712706903642281</v>
+        <v>0.9712706903642246</v>
       </c>
       <c r="D11">
-        <v>0.99714492400307</v>
+        <v>0.997144924003067</v>
       </c>
       <c r="E11">
-        <v>0.9870666654507689</v>
+        <v>0.9870666654507657</v>
       </c>
       <c r="F11">
-        <v>0.993272262364705</v>
+        <v>0.9932722623647019</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037145904941088</v>
+        <v>1.037145904941086</v>
       </c>
       <c r="J11">
-        <v>1.001889483634895</v>
+        <v>1.001889483634891</v>
       </c>
       <c r="K11">
-        <v>1.012120884477978</v>
+        <v>1.012120884477975</v>
       </c>
       <c r="L11">
-        <v>1.002236677771879</v>
+        <v>1.002236677771876</v>
       </c>
       <c r="M11">
-        <v>1.008322179101655</v>
+        <v>1.008322179101652</v>
       </c>
       <c r="N11">
-        <v>1.003312281619986</v>
+        <v>1.003312281619983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9683333725667074</v>
+        <v>0.9683333725667104</v>
       </c>
       <c r="D12">
-        <v>0.994867027629829</v>
+        <v>0.9948670276298315</v>
       </c>
       <c r="E12">
-        <v>0.9844745785779179</v>
+        <v>0.9844745785779206</v>
       </c>
       <c r="F12">
-        <v>0.9905792172647596</v>
+        <v>0.9905792172647622</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036028634761904</v>
+        <v>1.036028634761905</v>
       </c>
       <c r="J12">
-        <v>0.999541129785332</v>
+        <v>0.9995411297853347</v>
       </c>
       <c r="K12">
-        <v>1.010093232461983</v>
+        <v>1.010093232461985</v>
       </c>
       <c r="L12">
-        <v>0.9999053907280324</v>
+        <v>0.9999053907280351</v>
       </c>
       <c r="M12">
-        <v>1.005889157934208</v>
+        <v>1.00588915793421</v>
       </c>
       <c r="N12">
-        <v>1.000960592838597</v>
+        <v>1.0009605928386</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9689670683763245</v>
+        <v>0.9689670683763216</v>
       </c>
       <c r="D13">
-        <v>0.9953583674358654</v>
+        <v>0.9953583674358626</v>
       </c>
       <c r="E13">
-        <v>0.9850337215619754</v>
+        <v>0.9850337215619729</v>
       </c>
       <c r="F13">
-        <v>0.9911601031383158</v>
+        <v>0.9911601031383132</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036269783578268</v>
+        <v>1.036269783578267</v>
       </c>
       <c r="J13">
-        <v>1.000047778088534</v>
+        <v>1.000047778088531</v>
       </c>
       <c r="K13">
-        <v>1.010530702524027</v>
+        <v>1.010530702524024</v>
       </c>
       <c r="L13">
-        <v>1.000408361603758</v>
+        <v>1.000408361603756</v>
       </c>
       <c r="M13">
-        <v>1.006414033523425</v>
+        <v>1.006414033523422</v>
       </c>
       <c r="N13">
-        <v>1.001467960640503</v>
+        <v>1.0014679606405</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,16 +913,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9710295123843783</v>
+        <v>0.9710295123843776</v>
       </c>
       <c r="D14">
-        <v>0.9969578489634664</v>
+        <v>0.9969578489634657</v>
       </c>
       <c r="E14">
-        <v>0.9868538015338559</v>
+        <v>0.9868538015338553</v>
       </c>
       <c r="F14">
-        <v>0.9930510920251253</v>
+        <v>0.9930510920251249</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -931,16 +931,16 @@
         <v>1.037054217219253</v>
       </c>
       <c r="J14">
-        <v>1.001696671650249</v>
+        <v>1.001696671650248</v>
       </c>
       <c r="K14">
         <v>1.011954409253152</v>
       </c>
       <c r="L14">
-        <v>1.002045269188194</v>
+        <v>1.002045269188193</v>
       </c>
       <c r="M14">
-        <v>1.00812239790971</v>
+        <v>1.008122397909709</v>
       </c>
       <c r="N14">
         <v>1.003119195820206</v>
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9722897975531065</v>
+        <v>0.9722897975531078</v>
       </c>
       <c r="D15">
-        <v>0.9979354968996779</v>
+        <v>0.9979354968996792</v>
       </c>
       <c r="E15">
-        <v>0.9879661933315552</v>
+        <v>0.9879661933315567</v>
       </c>
       <c r="F15">
-        <v>0.9942069231078177</v>
+        <v>0.9942069231078188</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037533235133273</v>
+        <v>1.037533235133274</v>
       </c>
       <c r="J15">
-        <v>1.002704202744065</v>
+        <v>1.002704202744066</v>
       </c>
       <c r="K15">
-        <v>1.012824307245821</v>
+        <v>1.012824307245822</v>
       </c>
       <c r="L15">
-        <v>1.003045462483242</v>
+        <v>1.003045462483243</v>
       </c>
       <c r="M15">
-        <v>1.009166381232734</v>
+        <v>1.009166381232735</v>
       </c>
       <c r="N15">
-        <v>1.004128157723741</v>
+        <v>1.004128157723742</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9794730024529842</v>
+        <v>0.9794730024529835</v>
       </c>
       <c r="D16">
-        <v>1.003511423534654</v>
+        <v>1.003511423534653</v>
       </c>
       <c r="E16">
-        <v>0.9943093487293662</v>
+        <v>0.9943093487293655</v>
       </c>
       <c r="F16">
-        <v>1.000799293737196</v>
+        <v>1.000799293737195</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04025851152755</v>
+        <v>1.040258511527549</v>
       </c>
       <c r="J16">
-        <v>1.008445914911982</v>
+        <v>1.008445914911981</v>
       </c>
       <c r="K16">
-        <v>1.017781073994341</v>
+        <v>1.01778107399434</v>
       </c>
       <c r="L16">
-        <v>1.008745133072487</v>
+        <v>1.008745133072486</v>
       </c>
       <c r="M16">
-        <v>1.015117496310875</v>
+        <v>1.015117496310874</v>
       </c>
       <c r="N16">
-        <v>1.00987802378152</v>
+        <v>1.009878023781519</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9838523042545113</v>
+        <v>0.9838523042545102</v>
       </c>
       <c r="D17">
-        <v>1.006913743097196</v>
+        <v>1.006913743097195</v>
       </c>
       <c r="E17">
-        <v>0.9981788222054528</v>
+        <v>0.998178822205452</v>
       </c>
       <c r="F17">
-        <v>1.004822104828266</v>
+        <v>1.004822104828265</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041915520523014</v>
+        <v>1.041915520523013</v>
       </c>
       <c r="J17">
-        <v>1.011945476377885</v>
+        <v>1.011945476377884</v>
       </c>
       <c r="K17">
-        <v>1.020801625646866</v>
+        <v>1.020801625646865</v>
       </c>
       <c r="L17">
-        <v>1.012218858793364</v>
+        <v>1.012218858793363</v>
       </c>
       <c r="M17">
-        <v>1.018746110064601</v>
+        <v>1.0187461100646</v>
       </c>
       <c r="N17">
-        <v>1.01338255502611</v>
+        <v>1.013382555026109</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9863638437582881</v>
+        <v>0.9863638437582865</v>
       </c>
       <c r="D18">
-        <v>1.008865919082699</v>
+        <v>1.008865919082698</v>
       </c>
       <c r="E18">
-        <v>1.000398727276096</v>
+        <v>1.000398727276095</v>
       </c>
       <c r="F18">
-        <v>1.007130445763534</v>
+        <v>1.007130445763533</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042864157661473</v>
+        <v>1.042864157661472</v>
       </c>
       <c r="J18">
-        <v>1.013952094599428</v>
+        <v>1.013952094599427</v>
       </c>
       <c r="K18">
-        <v>1.022533350181603</v>
+        <v>1.022533350181601</v>
       </c>
       <c r="L18">
-        <v>1.014210581715499</v>
+        <v>1.014210581715497</v>
       </c>
       <c r="M18">
-        <v>1.020827223142447</v>
+        <v>1.020827223142446</v>
       </c>
       <c r="N18">
-        <v>1.015392022875691</v>
+        <v>1.015392022875689</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,7 +1118,7 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9872131928714294</v>
+        <v>0.9872131928714295</v>
       </c>
       <c r="D19">
         <v>1.009526252903105</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04318468015304</v>
+        <v>1.043184680153041</v>
       </c>
       <c r="J19">
         <v>1.014630619214312</v>
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833869361720247</v>
+        <v>0.9833869361720237</v>
       </c>
       <c r="D20">
-        <v>1.006552094396695</v>
+        <v>1.006552094396693</v>
       </c>
       <c r="E20">
-        <v>0.997767551087236</v>
+        <v>0.9977675510872349</v>
       </c>
       <c r="F20">
-        <v>1.004394487392361</v>
+        <v>1.00439448739236</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041739609707793</v>
+        <v>1.041739609707792</v>
       </c>
       <c r="J20">
-        <v>1.011573633408206</v>
+        <v>1.011573633408205</v>
       </c>
       <c r="K20">
-        <v>1.020480703295589</v>
+        <v>1.020480703295588</v>
       </c>
       <c r="L20">
-        <v>1.01184976933349</v>
+        <v>1.011849769333488</v>
       </c>
       <c r="M20">
-        <v>1.018360502671955</v>
+        <v>1.018360502671954</v>
       </c>
       <c r="N20">
-        <v>1.013010183996763</v>
+        <v>1.013010183996762</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9704243705582687</v>
+        <v>0.9704243705582677</v>
       </c>
       <c r="D21">
-        <v>0.9964884893567535</v>
+        <v>0.9964884893567528</v>
       </c>
       <c r="E21">
-        <v>0.9863197280032077</v>
+        <v>0.9863197280032068</v>
       </c>
       <c r="F21">
-        <v>0.9924961901690756</v>
+        <v>0.9924961901690749</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>1.036824123347222</v>
       </c>
       <c r="J21">
-        <v>1.001212879405782</v>
+        <v>1.001212879405781</v>
       </c>
       <c r="K21">
-        <v>1.011536695176141</v>
+        <v>1.01153669517614</v>
       </c>
       <c r="L21">
-        <v>1.001564996558774</v>
+        <v>1.001564996558773</v>
       </c>
       <c r="M21">
-        <v>1.007621132838272</v>
+        <v>1.007621132838271</v>
       </c>
       <c r="N21">
-        <v>1.00263471653526</v>
+        <v>1.002634716535259</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9618249583952413</v>
+        <v>0.9618249583952387</v>
       </c>
       <c r="D22">
-        <v>0.9898237366448512</v>
+        <v>0.9898237366448489</v>
       </c>
       <c r="E22">
-        <v>0.9787342508871497</v>
+        <v>0.9787342508871477</v>
       </c>
       <c r="F22">
-        <v>0.9846167548884114</v>
+        <v>0.9846167548884093</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033548621520799</v>
+        <v>1.033548621520798</v>
       </c>
       <c r="J22">
-        <v>0.9943371949790796</v>
+        <v>0.9943371949790772</v>
       </c>
       <c r="K22">
-        <v>1.005599519202079</v>
+        <v>1.005599519202077</v>
       </c>
       <c r="L22">
-        <v>0.9947390946995545</v>
+        <v>0.9947390946995526</v>
       </c>
       <c r="M22">
-        <v>1.000499243144359</v>
+        <v>1.000499243144357</v>
       </c>
       <c r="N22">
-        <v>0.9957492678480204</v>
+        <v>0.9957492678480181</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,16 +1282,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.966429708761905</v>
+        <v>0.9664297087619057</v>
       </c>
       <c r="D23">
-        <v>0.9933913223701938</v>
+        <v>0.993391322370194</v>
       </c>
       <c r="E23">
-        <v>0.9827951209616373</v>
+        <v>0.982795120961638</v>
       </c>
       <c r="F23">
-        <v>0.988834566220373</v>
+        <v>0.9888345662203737</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1300,19 +1300,19 @@
         <v>1.035303856980112</v>
       </c>
       <c r="J23">
-        <v>0.9980190806012981</v>
+        <v>0.9980190806012985</v>
       </c>
       <c r="K23">
-        <v>1.008778968581753</v>
+        <v>1.008778968581754</v>
       </c>
       <c r="L23">
-        <v>0.9983943744771927</v>
+        <v>0.9983943744771933</v>
       </c>
       <c r="M23">
         <v>1.004312480582286</v>
       </c>
       <c r="N23">
-        <v>0.9994363821701403</v>
+        <v>0.999436382170141</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9835973476928075</v>
+        <v>0.9835973476928053</v>
       </c>
       <c r="D24">
-        <v>1.006715607342913</v>
+        <v>1.006715607342912</v>
       </c>
       <c r="E24">
-        <v>0.9979535008810627</v>
+        <v>0.9979535008810613</v>
       </c>
       <c r="F24">
-        <v>1.004587826466993</v>
+        <v>1.004587826466991</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.041819151204599</v>
       </c>
       <c r="J24">
-        <v>1.011741759706762</v>
+        <v>1.01174175970676</v>
       </c>
       <c r="K24">
-        <v>1.020625806911338</v>
+        <v>1.020625806911336</v>
       </c>
       <c r="L24">
-        <v>1.012016650905305</v>
+        <v>1.012016650905303</v>
       </c>
       <c r="M24">
-        <v>1.018534850916796</v>
+        <v>1.018534850916794</v>
       </c>
       <c r="N24">
-        <v>1.013178549053947</v>
+        <v>1.013178549053945</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001858199054992</v>
+        <v>1.001858199054994</v>
       </c>
       <c r="D25">
-        <v>1.020923031873251</v>
+        <v>1.020923031873252</v>
       </c>
       <c r="E25">
-        <v>1.014105065324479</v>
+        <v>1.014105065324481</v>
       </c>
       <c r="F25">
-        <v>1.021390863988218</v>
+        <v>1.021390863988219</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048686119361859</v>
+        <v>1.04868611936186</v>
       </c>
       <c r="J25">
-        <v>1.02632318880734</v>
+        <v>1.026323188807341</v>
       </c>
       <c r="K25">
-        <v>1.033205000791244</v>
+        <v>1.033205000791245</v>
       </c>
       <c r="L25">
-        <v>1.026488294350152</v>
+        <v>1.026488294350153</v>
       </c>
       <c r="M25">
-        <v>1.033665947626156</v>
+        <v>1.033665947626158</v>
       </c>
       <c r="N25">
-        <v>1.027780685456362</v>
+        <v>1.027780685456363</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015340573912845</v>
+        <v>1.008039716729601</v>
       </c>
       <c r="D2">
-        <v>1.031430424937265</v>
+        <v>1.02674595892334</v>
       </c>
       <c r="E2">
-        <v>1.026045210568276</v>
+        <v>1.021675057404956</v>
       </c>
       <c r="F2">
-        <v>1.033826144452302</v>
+        <v>1.028857885987255</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053701395645133</v>
+        <v>1.051163620903867</v>
       </c>
       <c r="J2">
-        <v>1.037071936090533</v>
+        <v>1.029982591822723</v>
       </c>
       <c r="K2">
-        <v>1.04246858439756</v>
+        <v>1.037844842956537</v>
       </c>
       <c r="L2">
-        <v>1.037153238097077</v>
+        <v>1.032840462437356</v>
       </c>
       <c r="M2">
-        <v>1.04483351416046</v>
+        <v>1.039929307501276</v>
       </c>
       <c r="N2">
-        <v>1.038544697193595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013522194040912</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037829850110431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024602083663607</v>
+        <v>1.013058661825263</v>
       </c>
       <c r="D3">
-        <v>1.038654665522409</v>
+        <v>1.030116821973959</v>
       </c>
       <c r="E3">
-        <v>1.034253269132835</v>
+        <v>1.025927382025368</v>
       </c>
       <c r="F3">
-        <v>1.042382185132189</v>
+        <v>1.03354162689272</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0571131530937</v>
+        <v>1.052515141034352</v>
       </c>
       <c r="J3">
-        <v>1.044443821927683</v>
+        <v>1.033199556011968</v>
       </c>
       <c r="K3">
-        <v>1.048815734873507</v>
+        <v>1.040378325595853</v>
       </c>
       <c r="L3">
-        <v>1.044465857627983</v>
+        <v>1.036238926205195</v>
       </c>
       <c r="M3">
-        <v>1.052500043558032</v>
+        <v>1.043762596310023</v>
       </c>
       <c r="N3">
-        <v>1.045927051954201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014627988621051</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039618582646622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030377815010265</v>
+        <v>1.016237085817481</v>
       </c>
       <c r="D4">
-        <v>1.043161753659397</v>
+        <v>1.032253806321196</v>
       </c>
       <c r="E4">
-        <v>1.039374044197841</v>
+        <v>1.028626223002342</v>
       </c>
       <c r="F4">
-        <v>1.047723519724043</v>
+        <v>1.036513526166573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059224849967955</v>
+        <v>1.053357737875998</v>
       </c>
       <c r="J4">
-        <v>1.049035129266938</v>
+        <v>1.035234371415684</v>
       </c>
       <c r="K4">
-        <v>1.052765734046768</v>
+        <v>1.041977937782014</v>
       </c>
       <c r="L4">
-        <v>1.049019395143477</v>
+        <v>1.038391007641788</v>
       </c>
       <c r="M4">
-        <v>1.057278161789758</v>
+        <v>1.046190366884968</v>
       </c>
       <c r="N4">
-        <v>1.050524879476508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015327312599161</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040750542880712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032757519231671</v>
+        <v>1.017561962678521</v>
       </c>
       <c r="D5">
-        <v>1.045019055020091</v>
+        <v>1.033147032256256</v>
       </c>
       <c r="E5">
-        <v>1.041484277303183</v>
+        <v>1.029753034250337</v>
       </c>
       <c r="F5">
-        <v>1.049925468125425</v>
+        <v>1.03775353674002</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060091000716666</v>
+        <v>1.053707127205637</v>
       </c>
       <c r="J5">
-        <v>1.050925315281821</v>
+        <v>1.036083468045231</v>
       </c>
       <c r="K5">
-        <v>1.054391125702182</v>
+        <v>1.042646211154042</v>
       </c>
       <c r="L5">
-        <v>1.050893822310906</v>
+        <v>1.039289212420101</v>
       </c>
       <c r="M5">
-        <v>1.059246033863807</v>
+        <v>1.047202972848876</v>
       </c>
       <c r="N5">
-        <v>1.05241774977234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015620030293122</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041230227384141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033154339503828</v>
+        <v>1.017789070083477</v>
       </c>
       <c r="D6">
-        <v>1.04532877734245</v>
+        <v>1.033302571359296</v>
       </c>
       <c r="E6">
-        <v>1.041836182568045</v>
+        <v>1.02994683878658</v>
       </c>
       <c r="F6">
-        <v>1.050292716272079</v>
+        <v>1.037966030426161</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060235201150276</v>
+        <v>1.053768547699768</v>
       </c>
       <c r="J6">
-        <v>1.051240416314363</v>
+        <v>1.036230850855385</v>
       </c>
       <c r="K6">
-        <v>1.054662037944309</v>
+        <v>1.042763971394929</v>
       </c>
       <c r="L6">
-        <v>1.05120628387121</v>
+        <v>1.039444649394199</v>
       </c>
       <c r="M6">
-        <v>1.059574130866313</v>
+        <v>1.047377309576387</v>
       </c>
       <c r="N6">
-        <v>1.052733298284491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015671975140463</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041322222832591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03040979854403</v>
+        <v>1.01626984710572</v>
       </c>
       <c r="D7">
-        <v>1.043186715020414</v>
+        <v>1.032282290873305</v>
       </c>
       <c r="E7">
-        <v>1.039402404611923</v>
+        <v>1.02865563269173</v>
       </c>
       <c r="F7">
-        <v>1.047753109484369</v>
+        <v>1.036543799296877</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0592365067222</v>
+        <v>1.053370990334728</v>
       </c>
       <c r="J7">
-        <v>1.049060539707953</v>
+        <v>1.035260388406068</v>
       </c>
       <c r="K7">
-        <v>1.052787587881671</v>
+        <v>1.042003228430248</v>
       </c>
       <c r="L7">
-        <v>1.049044594567335</v>
+        <v>1.038417196699197</v>
       </c>
       <c r="M7">
-        <v>1.057304613523858</v>
+        <v>1.046217445315025</v>
       </c>
       <c r="N7">
-        <v>1.050550326003264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015339388023034</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040788509836274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018517760268966</v>
+        <v>1.009769423654686</v>
       </c>
       <c r="D8">
-        <v>1.033908234093495</v>
+        <v>1.02791499951065</v>
       </c>
       <c r="E8">
-        <v>1.028860518278172</v>
+        <v>1.023141367807331</v>
       </c>
       <c r="F8">
-        <v>1.036760069171826</v>
+        <v>1.030470403049969</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0548751465482</v>
+        <v>1.051637690485957</v>
       </c>
       <c r="J8">
-        <v>1.03960210651195</v>
+        <v>1.03109798192928</v>
       </c>
       <c r="K8">
-        <v>1.044647680076464</v>
+        <v>1.038729668091054</v>
       </c>
       <c r="L8">
-        <v>1.039663246771238</v>
+        <v>1.034016739246913</v>
       </c>
       <c r="M8">
-        <v>1.047464101308392</v>
+        <v>1.041252864666906</v>
       </c>
       <c r="N8">
-        <v>1.041078460747225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013909715612999</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038478414364882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9957164761508537</v>
+        <v>0.9977298257579865</v>
       </c>
       <c r="D9">
-        <v>1.016141142633306</v>
+        <v>1.019837403035551</v>
       </c>
       <c r="E9">
-        <v>1.008669897738785</v>
+        <v>1.012975120176105</v>
       </c>
       <c r="F9">
-        <v>1.01573426140037</v>
+        <v>1.019270547947571</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046385068470887</v>
+        <v>1.048316496760697</v>
       </c>
       <c r="J9">
-        <v>1.021421408781742</v>
+        <v>1.023363005211472</v>
       </c>
       <c r="K9">
-        <v>1.028977658857004</v>
+        <v>1.032616627080522</v>
       </c>
       <c r="L9">
-        <v>1.021623860738722</v>
+        <v>1.025861135155205</v>
       </c>
       <c r="M9">
-        <v>1.028577116864914</v>
+        <v>1.032058523819099</v>
       </c>
       <c r="N9">
-        <v>1.022871944340885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011246922555201</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.034152876113276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9789721097823014</v>
+        <v>0.9892846965707004</v>
       </c>
       <c r="D10">
-        <v>1.003122412130382</v>
+        <v>1.014192763365677</v>
       </c>
       <c r="E10">
-        <v>0.993866878058977</v>
+        <v>1.005882073001642</v>
       </c>
       <c r="F10">
-        <v>1.000339353519276</v>
+        <v>1.011450603530667</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040068762545723</v>
+        <v>1.045921532403868</v>
       </c>
       <c r="J10">
-        <v>1.008045595224347</v>
+        <v>1.01792999576467</v>
       </c>
       <c r="K10">
-        <v>1.017435518388598</v>
+        <v>1.028310405763796</v>
       </c>
       <c r="L10">
-        <v>1.008347757959676</v>
+        <v>1.020145930789068</v>
       </c>
       <c r="M10">
-        <v>1.014702483535341</v>
+        <v>1.02561614638845</v>
       </c>
       <c r="N10">
-        <v>1.009477135594011</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009378066867294</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031124958482758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9712706903642246</v>
+        <v>0.9855355624066529</v>
       </c>
       <c r="D11">
-        <v>0.997144924003067</v>
+        <v>1.011699915164776</v>
       </c>
       <c r="E11">
-        <v>0.9870666654507657</v>
+        <v>1.002745495284316</v>
       </c>
       <c r="F11">
-        <v>0.9932722623647019</v>
+        <v>1.00798815548663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037145904941086</v>
+        <v>1.044848232151857</v>
       </c>
       <c r="J11">
-        <v>1.001889483634891</v>
+        <v>1.015522709687014</v>
       </c>
       <c r="K11">
-        <v>1.012120884477975</v>
+        <v>1.026404510453949</v>
       </c>
       <c r="L11">
-        <v>1.002236677771876</v>
+        <v>1.017615820654107</v>
       </c>
       <c r="M11">
-        <v>1.008322179101652</v>
+        <v>1.022760982982958</v>
       </c>
       <c r="N11">
-        <v>1.003312281619983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00855507569143</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.029810440588727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9683333725667104</v>
+        <v>0.9841143613272332</v>
       </c>
       <c r="D12">
-        <v>0.9948670276298315</v>
+        <v>1.010751738917985</v>
       </c>
       <c r="E12">
-        <v>0.9844745785779206</v>
+        <v>1.001556638171708</v>
       </c>
       <c r="F12">
-        <v>0.9905792172647622</v>
+        <v>1.006677281189005</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036028634761905</v>
+        <v>1.044436428996184</v>
       </c>
       <c r="J12">
-        <v>0.9995411297853347</v>
+        <v>1.01460658527618</v>
       </c>
       <c r="K12">
-        <v>1.010093232461985</v>
+        <v>1.025675811349092</v>
       </c>
       <c r="L12">
-        <v>0.9999053907280351</v>
+        <v>1.016654076092977</v>
       </c>
       <c r="M12">
-        <v>1.00588915793421</v>
+        <v>1.021677663455919</v>
       </c>
       <c r="N12">
-        <v>1.0009605928386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008239253762473</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029295219723285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9689670683763216</v>
+        <v>0.9844179092638132</v>
       </c>
       <c r="D13">
-        <v>0.9953583674358626</v>
+        <v>1.010953407443862</v>
       </c>
       <c r="E13">
-        <v>0.9850337215619729</v>
+        <v>1.001810207770436</v>
       </c>
       <c r="F13">
-        <v>0.9911601031383132</v>
+        <v>1.006957223533064</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036269783578267</v>
+        <v>1.044523953310762</v>
       </c>
       <c r="J13">
-        <v>1.000047778088531</v>
+        <v>1.014801597952407</v>
       </c>
       <c r="K13">
-        <v>1.010530702524024</v>
+        <v>1.025830384044597</v>
       </c>
       <c r="L13">
-        <v>1.000408361603756</v>
+        <v>1.016858891387636</v>
       </c>
       <c r="M13">
-        <v>1.006414033523422</v>
+        <v>1.021908746600172</v>
       </c>
       <c r="N13">
-        <v>1.0014679606405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008305952569705</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029401997564459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9710295123843776</v>
+        <v>0.9854175481966525</v>
       </c>
       <c r="D14">
-        <v>0.9969578489634657</v>
+        <v>1.011620816197491</v>
       </c>
       <c r="E14">
-        <v>0.9868538015338553</v>
+        <v>1.002646622731144</v>
       </c>
       <c r="F14">
-        <v>0.9930510920251249</v>
+        <v>1.007879283429808</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037054217219253</v>
+        <v>1.044813854589194</v>
       </c>
       <c r="J14">
-        <v>1.001696671650248</v>
+        <v>1.015446355313935</v>
       </c>
       <c r="K14">
-        <v>1.011954409253152</v>
+        <v>1.026343544689552</v>
       </c>
       <c r="L14">
-        <v>1.002045269188193</v>
+        <v>1.017535703213527</v>
       </c>
       <c r="M14">
-        <v>1.008122397909709</v>
+        <v>1.022670898181735</v>
       </c>
       <c r="N14">
-        <v>1.003119195820206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008528528602739</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029766259545553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9722897975531078</v>
+        <v>0.9860352694081516</v>
       </c>
       <c r="D15">
-        <v>0.9979354968996792</v>
+        <v>1.012034968903978</v>
       </c>
       <c r="E15">
-        <v>0.9879661933315567</v>
+        <v>1.003164242108918</v>
       </c>
       <c r="F15">
-        <v>0.9942069231078188</v>
+        <v>1.00844921084909</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037533235133274</v>
+        <v>1.044993764081532</v>
       </c>
       <c r="J15">
-        <v>1.002704202744066</v>
+        <v>1.015846078921004</v>
       </c>
       <c r="K15">
-        <v>1.012824307245822</v>
+        <v>1.026662749935798</v>
       </c>
       <c r="L15">
-        <v>1.003045462483243</v>
+        <v>1.017955133890158</v>
       </c>
       <c r="M15">
-        <v>1.009166381232735</v>
+        <v>1.023142475066424</v>
       </c>
       <c r="N15">
-        <v>1.004128157723742</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008667557966167</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.029997864881173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9794730024529835</v>
+        <v>0.9895673187173487</v>
       </c>
       <c r="D16">
-        <v>1.003511423534653</v>
+        <v>1.014394822461826</v>
       </c>
       <c r="E16">
-        <v>0.9943093487293655</v>
+        <v>1.006123453378323</v>
       </c>
       <c r="F16">
-        <v>1.000799293737195</v>
+        <v>1.011711316009674</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040258511527549</v>
+        <v>1.046011402460807</v>
       </c>
       <c r="J16">
-        <v>1.008445914911981</v>
+        <v>1.018122929076841</v>
       </c>
       <c r="K16">
-        <v>1.01778107399434</v>
+        <v>1.028473019388764</v>
       </c>
       <c r="L16">
-        <v>1.008745133072486</v>
+        <v>1.020346664699232</v>
       </c>
       <c r="M16">
-        <v>1.015117496310874</v>
+        <v>1.025836223871059</v>
       </c>
       <c r="N16">
-        <v>1.009878023781519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009452919585769</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.031280985899221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9838523042545102</v>
+        <v>0.9917519141938269</v>
       </c>
       <c r="D17">
-        <v>1.006913743097195</v>
+        <v>1.015855954687451</v>
       </c>
       <c r="E17">
-        <v>0.998178822205452</v>
+        <v>1.00795634462124</v>
       </c>
       <c r="F17">
-        <v>1.004822104828265</v>
+        <v>1.013731498175228</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041915520523013</v>
+        <v>1.046636886487361</v>
       </c>
       <c r="J17">
-        <v>1.011945476377884</v>
+        <v>1.019530786184535</v>
       </c>
       <c r="K17">
-        <v>1.020801625646865</v>
+        <v>1.029591568197827</v>
       </c>
       <c r="L17">
-        <v>1.012218858793363</v>
+        <v>1.021826293770972</v>
       </c>
       <c r="M17">
-        <v>1.0187461100646</v>
+        <v>1.027502973215339</v>
       </c>
       <c r="N17">
-        <v>1.013382555026109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00993852761989</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032074445047071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9863638437582865</v>
+        <v>0.9930042582204303</v>
       </c>
       <c r="D18">
-        <v>1.008865919082698</v>
+        <v>1.016689781265995</v>
       </c>
       <c r="E18">
-        <v>1.000398727276095</v>
+        <v>1.009006572637021</v>
       </c>
       <c r="F18">
-        <v>1.007130445763533</v>
+        <v>1.014890649061024</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042864157661472</v>
+        <v>1.046991143935499</v>
       </c>
       <c r="J18">
-        <v>1.013952094599427</v>
+        <v>1.02033418657312</v>
       </c>
       <c r="K18">
-        <v>1.022533350181601</v>
+        <v>1.030226514513515</v>
       </c>
       <c r="L18">
-        <v>1.014210581715497</v>
+        <v>1.022671631035453</v>
       </c>
       <c r="M18">
-        <v>1.020827223142446</v>
+        <v>1.028457207115111</v>
       </c>
       <c r="N18">
-        <v>1.015392022875689</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010212978059582</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032511675077392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9872131928714295</v>
+        <v>0.9934380365912955</v>
       </c>
       <c r="D19">
-        <v>1.009526252903105</v>
+        <v>1.016982030308742</v>
       </c>
       <c r="E19">
-        <v>1.001149572617616</v>
+        <v>1.00937158604045</v>
       </c>
       <c r="F19">
-        <v>1.007911281763567</v>
+        <v>1.015292161651054</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043184680153041</v>
+        <v>1.047115846345362</v>
       </c>
       <c r="J19">
-        <v>1.014630619214312</v>
+        <v>1.020615167949342</v>
       </c>
       <c r="K19">
-        <v>1.023118879677699</v>
+        <v>1.030450924543011</v>
       </c>
       <c r="L19">
-        <v>1.014884055340562</v>
+        <v>1.022966804538447</v>
       </c>
       <c r="M19">
-        <v>1.021531020866376</v>
+        <v>1.028788895200978</v>
       </c>
       <c r="N19">
-        <v>1.016071511073355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010311043080268</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032676767218187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9833869361720237</v>
+        <v>0.9915177918569265</v>
       </c>
       <c r="D20">
-        <v>1.006552094396693</v>
+        <v>1.015698977086568</v>
       </c>
       <c r="E20">
-        <v>0.9977675510872349</v>
+        <v>1.007759709195669</v>
       </c>
       <c r="F20">
-        <v>1.00439448739236</v>
+        <v>1.013514915762818</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041739609707792</v>
+        <v>1.046569779971741</v>
       </c>
       <c r="J20">
-        <v>1.011573633408205</v>
+        <v>1.019379650096734</v>
       </c>
       <c r="K20">
-        <v>1.020480703295588</v>
+        <v>1.029471283831215</v>
       </c>
       <c r="L20">
-        <v>1.011849769333488</v>
+        <v>1.021667472115089</v>
       </c>
       <c r="M20">
-        <v>1.018360502671954</v>
+        <v>1.027324212796721</v>
       </c>
       <c r="N20">
-        <v>1.013010183996762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009886188920771</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031988056680042</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9704243705582677</v>
+        <v>0.9851356629507007</v>
       </c>
       <c r="D21">
-        <v>0.9964884893567528</v>
+        <v>1.011437099811165</v>
       </c>
       <c r="E21">
-        <v>0.9863197280032068</v>
+        <v>1.002412299349595</v>
       </c>
       <c r="F21">
-        <v>0.9924961901690749</v>
+        <v>1.007619076428725</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036824123347222</v>
+        <v>1.04473513443225</v>
       </c>
       <c r="J21">
-        <v>1.001212879405781</v>
+        <v>1.015268275656521</v>
       </c>
       <c r="K21">
-        <v>1.01153669517614</v>
+        <v>1.02620498482742</v>
       </c>
       <c r="L21">
-        <v>1.001564996558773</v>
+        <v>1.017348113649621</v>
       </c>
       <c r="M21">
-        <v>1.007621132838271</v>
+        <v>1.022457526622463</v>
       </c>
       <c r="N21">
-        <v>1.002634716535259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00847000794735</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.029681903180959</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9618249583952387</v>
+        <v>0.9810030022891719</v>
       </c>
       <c r="D22">
-        <v>0.9898237366448489</v>
+        <v>1.008677264486235</v>
       </c>
       <c r="E22">
-        <v>0.9787342508871477</v>
+        <v>0.9989566678514722</v>
       </c>
       <c r="F22">
-        <v>0.9846167548884093</v>
+        <v>1.003810330828839</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033548621520798</v>
+        <v>1.043530570239046</v>
       </c>
       <c r="J22">
-        <v>0.9943371949790772</v>
+        <v>1.012600244946056</v>
       </c>
       <c r="K22">
-        <v>1.005599519202077</v>
+        <v>1.024078760941471</v>
       </c>
       <c r="L22">
-        <v>0.9947390946995526</v>
+        <v>1.014548821728277</v>
       </c>
       <c r="M22">
-        <v>1.000499243144357</v>
+        <v>1.019306680357937</v>
       </c>
       <c r="N22">
-        <v>0.9957492678480181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007547258068211</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.028164957585076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9664297087619057</v>
+        <v>0.9831897656278286</v>
       </c>
       <c r="D23">
-        <v>0.993391322370194</v>
+        <v>1.010131658543745</v>
       </c>
       <c r="E23">
-        <v>0.982795120961638</v>
+        <v>1.000782405026881</v>
       </c>
       <c r="F23">
-        <v>0.9888345662203737</v>
+        <v>1.005825017479602</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035303856980112</v>
+        <v>1.044165603396615</v>
       </c>
       <c r="J23">
-        <v>0.9980190806012985</v>
+        <v>1.014007627561113</v>
       </c>
       <c r="K23">
-        <v>1.008778968581754</v>
+        <v>1.025196816502557</v>
       </c>
       <c r="L23">
-        <v>0.9983943744771933</v>
+        <v>1.016025925709828</v>
       </c>
       <c r="M23">
-        <v>1.004312480582286</v>
+        <v>1.020971797625438</v>
       </c>
       <c r="N23">
-        <v>0.999436382170141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008030452091558</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028945770888094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9835973476928053</v>
+        <v>0.9916002400625816</v>
       </c>
       <c r="D24">
-        <v>1.006715607342912</v>
+        <v>1.015745257623553</v>
       </c>
       <c r="E24">
-        <v>0.9979535008810613</v>
+        <v>1.007825995484019</v>
       </c>
       <c r="F24">
-        <v>1.004587826466991</v>
+        <v>1.013591542858671</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041819151204599</v>
+        <v>1.046587396129146</v>
       </c>
       <c r="J24">
-        <v>1.01174175970676</v>
+        <v>1.019425510472914</v>
       </c>
       <c r="K24">
-        <v>1.020625806911336</v>
+        <v>1.029501398047612</v>
       </c>
       <c r="L24">
-        <v>1.012016650905303</v>
+        <v>1.021717057723144</v>
       </c>
       <c r="M24">
-        <v>1.018534850916794</v>
+        <v>1.027384107079606</v>
       </c>
       <c r="N24">
-        <v>1.013178549053945</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009896473301877</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031981800458144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001858199054994</v>
+        <v>1.000937613585806</v>
       </c>
       <c r="D25">
-        <v>1.020923031873252</v>
+        <v>1.021996266813652</v>
       </c>
       <c r="E25">
-        <v>1.014105065324481</v>
+        <v>1.015680485422061</v>
       </c>
       <c r="F25">
-        <v>1.021390863988219</v>
+        <v>1.022248143694055</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04868611936186</v>
+        <v>1.049219819855013</v>
       </c>
       <c r="J25">
-        <v>1.026323188807341</v>
+        <v>1.025433464442391</v>
       </c>
       <c r="K25">
-        <v>1.033205000791245</v>
+        <v>1.03426245236551</v>
       </c>
       <c r="L25">
-        <v>1.026488294350153</v>
+        <v>1.02804016277917</v>
       </c>
       <c r="M25">
-        <v>1.033665947626158</v>
+        <v>1.03451063115275</v>
       </c>
       <c r="N25">
-        <v>1.027780685456363</v>
+        <v>1.011965258117445</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035345255543931</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_52/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_52/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008039716729601</v>
+        <v>1.00758608416652</v>
       </c>
       <c r="D2">
-        <v>1.02674595892334</v>
+        <v>1.025842499573414</v>
       </c>
       <c r="E2">
-        <v>1.021675057404956</v>
+        <v>1.021298319174092</v>
       </c>
       <c r="F2">
-        <v>1.028857885987255</v>
+        <v>1.028435656044954</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051163620903867</v>
+        <v>1.050703349730777</v>
       </c>
       <c r="J2">
-        <v>1.029982591822723</v>
+        <v>1.029542240271166</v>
       </c>
       <c r="K2">
-        <v>1.037844842956537</v>
+        <v>1.036953175031303</v>
       </c>
       <c r="L2">
-        <v>1.032840462437356</v>
+        <v>1.032468699390275</v>
       </c>
       <c r="M2">
-        <v>1.039929307501276</v>
+        <v>1.039512556748548</v>
       </c>
       <c r="N2">
-        <v>1.013522194040912</v>
+        <v>1.014786507811973</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037829850110431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037208145876529</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021854671057809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013058661825263</v>
+        <v>1.01226536198881</v>
       </c>
       <c r="D3">
-        <v>1.030116821973959</v>
+        <v>1.028853647225546</v>
       </c>
       <c r="E3">
-        <v>1.025927382025368</v>
+        <v>1.025249228814869</v>
       </c>
       <c r="F3">
-        <v>1.03354162689272</v>
+        <v>1.032818532310461</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052515141034352</v>
+        <v>1.051865745105721</v>
       </c>
       <c r="J3">
-        <v>1.033199556011968</v>
+        <v>1.032427155140779</v>
       </c>
       <c r="K3">
-        <v>1.040378325595853</v>
+        <v>1.039130185572379</v>
       </c>
       <c r="L3">
-        <v>1.036238926205195</v>
+        <v>1.035568920883623</v>
       </c>
       <c r="M3">
-        <v>1.043762596310023</v>
+        <v>1.043048032172577</v>
       </c>
       <c r="N3">
-        <v>1.014627988621051</v>
+        <v>1.015570878589776</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039618582646622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038744538503912</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022334511283373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016237085817481</v>
+        <v>1.015231619773387</v>
       </c>
       <c r="D4">
-        <v>1.032253806321196</v>
+        <v>1.030764675330318</v>
       </c>
       <c r="E4">
-        <v>1.028626223002342</v>
+        <v>1.027759607411691</v>
       </c>
       <c r="F4">
-        <v>1.036513526166573</v>
+        <v>1.035602406280086</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053357737875998</v>
+        <v>1.052589354999257</v>
       </c>
       <c r="J4">
-        <v>1.035234371415684</v>
+        <v>1.034253564379028</v>
       </c>
       <c r="K4">
-        <v>1.041977937782014</v>
+        <v>1.040505452388468</v>
       </c>
       <c r="L4">
-        <v>1.038391007641788</v>
+        <v>1.037534156257743</v>
       </c>
       <c r="M4">
-        <v>1.046190366884968</v>
+        <v>1.045289321894291</v>
       </c>
       <c r="N4">
-        <v>1.015327312599161</v>
+        <v>1.016067512551391</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040750542880712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03971794654699</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022635145723561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017561962678521</v>
+        <v>1.016468517050034</v>
       </c>
       <c r="D5">
-        <v>1.033147032256256</v>
+        <v>1.031564068102112</v>
       </c>
       <c r="E5">
-        <v>1.029753034250337</v>
+        <v>1.028808185984744</v>
       </c>
       <c r="F5">
-        <v>1.03775353674002</v>
+        <v>1.036764409717714</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053707127205637</v>
+        <v>1.052889282188592</v>
       </c>
       <c r="J5">
-        <v>1.036083468045231</v>
+        <v>1.035016022026715</v>
       </c>
       <c r="K5">
-        <v>1.042646211154042</v>
+        <v>1.041080466314521</v>
       </c>
       <c r="L5">
-        <v>1.039289212420101</v>
+        <v>1.038354717657588</v>
       </c>
       <c r="M5">
-        <v>1.047202972848876</v>
+        <v>1.046224481117935</v>
       </c>
       <c r="N5">
-        <v>1.015620030293122</v>
+        <v>1.016275499482851</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041230227384141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040132401077901</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022760826749415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017789070083477</v>
+        <v>1.016680337412643</v>
       </c>
       <c r="D6">
-        <v>1.033302571359296</v>
+        <v>1.031703466997204</v>
       </c>
       <c r="E6">
-        <v>1.02994683878658</v>
+        <v>1.028988340445026</v>
       </c>
       <c r="F6">
-        <v>1.037966030426161</v>
+        <v>1.036963325934408</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053768547699768</v>
+        <v>1.052942186026383</v>
       </c>
       <c r="J6">
-        <v>1.036230850855385</v>
+        <v>1.035148342947971</v>
       </c>
       <c r="K6">
-        <v>1.042763971394929</v>
+        <v>1.041182181491402</v>
       </c>
       <c r="L6">
-        <v>1.039444649394199</v>
+        <v>1.038496604533231</v>
       </c>
       <c r="M6">
-        <v>1.047377309576387</v>
+        <v>1.046385335121361</v>
       </c>
       <c r="N6">
-        <v>1.015671975140463</v>
+        <v>1.016312385660202</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041322222832591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040213923042975</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022783736389504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01626984710572</v>
+        <v>1.015273273347816</v>
       </c>
       <c r="D7">
-        <v>1.032282290873305</v>
+        <v>1.030798797556478</v>
       </c>
       <c r="E7">
-        <v>1.02865563269173</v>
+        <v>1.027797182467872</v>
       </c>
       <c r="F7">
-        <v>1.036543799296877</v>
+        <v>1.035640656337364</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053370990334728</v>
+        <v>1.052605753707439</v>
       </c>
       <c r="J7">
-        <v>1.035260388406068</v>
+        <v>1.034288244255658</v>
       </c>
       <c r="K7">
-        <v>1.042003228430248</v>
+        <v>1.040536310927168</v>
       </c>
       <c r="L7">
-        <v>1.038417196699197</v>
+        <v>1.037568414679717</v>
       </c>
       <c r="M7">
-        <v>1.046217445315025</v>
+        <v>1.0453242849086</v>
       </c>
       <c r="N7">
-        <v>1.015339388023034</v>
+        <v>1.016105785397435</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040788509836274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039761855622644</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022644727396764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009769423654686</v>
+        <v>1.009233462452423</v>
       </c>
       <c r="D8">
-        <v>1.02791499951065</v>
+        <v>1.026912211980062</v>
       </c>
       <c r="E8">
-        <v>1.023141367807331</v>
+        <v>1.022692855051347</v>
       </c>
       <c r="F8">
-        <v>1.030470403049969</v>
+        <v>1.029975800189438</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051637690485957</v>
+        <v>1.051125820158186</v>
       </c>
       <c r="J8">
-        <v>1.03109798192928</v>
+        <v>1.030577170439315</v>
       </c>
       <c r="K8">
-        <v>1.038729668091054</v>
+        <v>1.037739573834525</v>
       </c>
       <c r="L8">
-        <v>1.034016739246913</v>
+        <v>1.033573966304231</v>
       </c>
       <c r="M8">
-        <v>1.041252864666906</v>
+        <v>1.040764479963094</v>
       </c>
       <c r="N8">
-        <v>1.013909715612999</v>
+        <v>1.015152018946501</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038478414364882</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037789382660311</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022033770209652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9977298257579865</v>
+        <v>0.9980345526486597</v>
       </c>
       <c r="D9">
-        <v>1.019837403035551</v>
+        <v>1.019713840391654</v>
       </c>
       <c r="E9">
-        <v>1.012975120176105</v>
+        <v>1.013271698954082</v>
       </c>
       <c r="F9">
-        <v>1.019270547947571</v>
+        <v>1.019520223683609</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048316496760697</v>
+        <v>1.048265886444906</v>
       </c>
       <c r="J9">
-        <v>1.023363005211472</v>
+        <v>1.023656907346715</v>
       </c>
       <c r="K9">
-        <v>1.032616627080522</v>
+        <v>1.03249497109425</v>
       </c>
       <c r="L9">
-        <v>1.025861135155205</v>
+        <v>1.026153060314762</v>
       </c>
       <c r="M9">
-        <v>1.032058523819099</v>
+        <v>1.03230434321365</v>
       </c>
       <c r="N9">
-        <v>1.011246922555201</v>
+        <v>1.013278794635239</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034152876113276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034077635116005</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020862051595576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9892846965707004</v>
+        <v>0.9902545498034372</v>
       </c>
       <c r="D10">
-        <v>1.014192763365677</v>
+        <v>1.014736935798257</v>
       </c>
       <c r="E10">
-        <v>1.005882073001642</v>
+        <v>1.006768698912514</v>
       </c>
       <c r="F10">
-        <v>1.011450603530667</v>
+        <v>1.012289528437928</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045921532403868</v>
+        <v>1.04622106788797</v>
       </c>
       <c r="J10">
-        <v>1.01792999576467</v>
+        <v>1.018860230942589</v>
       </c>
       <c r="K10">
-        <v>1.028310405763796</v>
+        <v>1.028845112359843</v>
       </c>
       <c r="L10">
-        <v>1.020145930789068</v>
+        <v>1.021016808466586</v>
       </c>
       <c r="M10">
-        <v>1.02561614638845</v>
+        <v>1.02644038113953</v>
       </c>
       <c r="N10">
-        <v>1.009378066867294</v>
+        <v>1.01209747289526</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031124958482758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031515508452006</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020038661741659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9855355624066529</v>
+        <v>0.9868933839343795</v>
       </c>
       <c r="D11">
-        <v>1.011699915164776</v>
+        <v>1.012605663065166</v>
       </c>
       <c r="E11">
-        <v>1.002745495284316</v>
+        <v>1.00397996685326</v>
       </c>
       <c r="F11">
-        <v>1.00798815548663</v>
+        <v>1.009172888658756</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044848232151857</v>
+        <v>1.045338502841071</v>
       </c>
       <c r="J11">
-        <v>1.015522709687014</v>
+        <v>1.016821764523417</v>
       </c>
       <c r="K11">
-        <v>1.026404510453949</v>
+        <v>1.027293707082342</v>
       </c>
       <c r="L11">
-        <v>1.017615820654107</v>
+        <v>1.018827215116408</v>
       </c>
       <c r="M11">
-        <v>1.022760982982958</v>
+        <v>1.023923866487188</v>
       </c>
       <c r="N11">
-        <v>1.00855507569143</v>
+        <v>1.01178693781601</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029810440588727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030454850376856</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019695333059897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9841143613272332</v>
+        <v>0.9856292279577287</v>
       </c>
       <c r="D12">
-        <v>1.010751738917985</v>
+        <v>1.011801415860974</v>
       </c>
       <c r="E12">
-        <v>1.001556638171708</v>
+        <v>1.002932504451918</v>
       </c>
       <c r="F12">
-        <v>1.006677281189005</v>
+        <v>1.008002370810072</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044436428996184</v>
+        <v>1.045002707215401</v>
       </c>
       <c r="J12">
-        <v>1.01460658527618</v>
+        <v>1.016054487768582</v>
       </c>
       <c r="K12">
-        <v>1.025675811349092</v>
+        <v>1.026705958930056</v>
       </c>
       <c r="L12">
-        <v>1.016654076092977</v>
+        <v>1.018003737135438</v>
       </c>
       <c r="M12">
-        <v>1.021677663455919</v>
+        <v>1.022977847304007</v>
       </c>
       <c r="N12">
-        <v>1.008239253762473</v>
+        <v>1.011685472636781</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029295219723285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030039297290212</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019564268535243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9844179092638132</v>
+        <v>0.9858989421064618</v>
       </c>
       <c r="D13">
-        <v>1.010953407443862</v>
+        <v>1.011972103828803</v>
       </c>
       <c r="E13">
-        <v>1.001810207770436</v>
+        <v>1.003155629641346</v>
       </c>
       <c r="F13">
-        <v>1.006957223533064</v>
+        <v>1.008252078718151</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044523953310762</v>
+        <v>1.045073871618053</v>
       </c>
       <c r="J13">
-        <v>1.014801597952407</v>
+        <v>1.016217457012173</v>
       </c>
       <c r="K13">
-        <v>1.025830384044597</v>
+        <v>1.026830200023668</v>
       </c>
       <c r="L13">
-        <v>1.016858891387636</v>
+        <v>1.018178789827175</v>
       </c>
       <c r="M13">
-        <v>1.021908746600172</v>
+        <v>1.023179362552805</v>
       </c>
       <c r="N13">
-        <v>1.008305952569705</v>
+        <v>1.011705718491292</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029401997564459</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030124386355653</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019591693534325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9854175481966525</v>
+        <v>0.9867882716009403</v>
       </c>
       <c r="D14">
-        <v>1.011620816197491</v>
+        <v>1.012538403148981</v>
       </c>
       <c r="E14">
-        <v>1.002646622731144</v>
+        <v>1.003892717062924</v>
       </c>
       <c r="F14">
-        <v>1.007879283429808</v>
+        <v>1.00907554853988</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044813854589194</v>
+        <v>1.045310377503033</v>
       </c>
       <c r="J14">
-        <v>1.015446355313935</v>
+        <v>1.016757649321862</v>
       </c>
       <c r="K14">
-        <v>1.026343544689552</v>
+        <v>1.027244338931972</v>
       </c>
       <c r="L14">
-        <v>1.017535703213527</v>
+        <v>1.018758466963704</v>
       </c>
       <c r="M14">
-        <v>1.022670898181735</v>
+        <v>1.023845066165546</v>
       </c>
       <c r="N14">
-        <v>1.008528528602739</v>
+        <v>1.011777874636982</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029766259545553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030418766799254</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019684203682407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9860352694081516</v>
+        <v>0.9873388267873201</v>
       </c>
       <c r="D15">
-        <v>1.012034968903978</v>
+        <v>1.012890849718967</v>
       </c>
       <c r="E15">
-        <v>1.003164242108918</v>
+        <v>1.004349843511668</v>
       </c>
       <c r="F15">
-        <v>1.00844921084909</v>
+        <v>1.009585452919081</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044993764081532</v>
+        <v>1.04545770200069</v>
       </c>
       <c r="J15">
-        <v>1.015846078921004</v>
+        <v>1.017093637570806</v>
       </c>
       <c r="K15">
-        <v>1.026662749935798</v>
+        <v>1.027503089791255</v>
       </c>
       <c r="L15">
-        <v>1.017955133890158</v>
+        <v>1.019118717478944</v>
       </c>
       <c r="M15">
-        <v>1.023142475066424</v>
+        <v>1.024257901510326</v>
       </c>
       <c r="N15">
-        <v>1.008667557966167</v>
+        <v>1.011826137983398</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.029997864881173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030608192279797</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019742578083468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9895673187173487</v>
+        <v>0.9905077948568349</v>
       </c>
       <c r="D16">
-        <v>1.014394822461826</v>
+        <v>1.014912234938096</v>
       </c>
       <c r="E16">
-        <v>1.006123453378323</v>
+        <v>1.006983255587274</v>
       </c>
       <c r="F16">
-        <v>1.011711316009674</v>
+        <v>1.012523842080235</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046011402460807</v>
+        <v>1.046296784364006</v>
       </c>
       <c r="J16">
-        <v>1.018122929076841</v>
+        <v>1.019025139979616</v>
       </c>
       <c r="K16">
-        <v>1.028473019388764</v>
+        <v>1.028981462186702</v>
       </c>
       <c r="L16">
-        <v>1.020346664699232</v>
+        <v>1.02119124888456</v>
       </c>
       <c r="M16">
-        <v>1.025836223871059</v>
+        <v>1.026634572721503</v>
       </c>
       <c r="N16">
-        <v>1.009452919585769</v>
+        <v>1.012134830822921</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031280985899221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031656934174657</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020073548815818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9917519141938269</v>
+        <v>0.9924869176751797</v>
       </c>
       <c r="D17">
-        <v>1.015855954687451</v>
+        <v>1.016177401006512</v>
       </c>
       <c r="E17">
-        <v>1.00795634462124</v>
+        <v>1.008632455505967</v>
       </c>
       <c r="F17">
-        <v>1.013731498175228</v>
+        <v>1.014361265664814</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046636886487361</v>
+        <v>1.046819050426981</v>
       </c>
       <c r="J17">
-        <v>1.019530786184535</v>
+        <v>1.020236905926265</v>
       </c>
       <c r="K17">
-        <v>1.029591568197827</v>
+        <v>1.029907605238766</v>
       </c>
       <c r="L17">
-        <v>1.021826293770972</v>
+        <v>1.022490800735877</v>
       </c>
       <c r="M17">
-        <v>1.027502973215339</v>
+        <v>1.028122089810109</v>
       </c>
       <c r="N17">
-        <v>1.00993852761989</v>
+        <v>1.012366293683399</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032074445047071</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032314593468049</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020281612967997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9930042582204303</v>
+        <v>0.9936294223025747</v>
       </c>
       <c r="D18">
-        <v>1.016689781265995</v>
+        <v>1.016904256140442</v>
       </c>
       <c r="E18">
-        <v>1.009006572637021</v>
+        <v>1.009584895353589</v>
       </c>
       <c r="F18">
-        <v>1.014890649061024</v>
+        <v>1.015422936841687</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046991143935499</v>
+        <v>1.047117053317033</v>
       </c>
       <c r="J18">
-        <v>1.02033418657312</v>
+        <v>1.020935281727349</v>
       </c>
       <c r="K18">
-        <v>1.030226514513515</v>
+        <v>1.030437443027998</v>
       </c>
       <c r="L18">
-        <v>1.022671631035453</v>
+        <v>1.023240206922228</v>
       </c>
       <c r="M18">
-        <v>1.028457207115111</v>
+        <v>1.028980656812084</v>
       </c>
       <c r="N18">
-        <v>1.010212978059582</v>
+        <v>1.012511985723586</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032511675077392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03267636989902</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02039951546837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9934380365912955</v>
+        <v>0.9940259749645124</v>
       </c>
       <c r="D19">
-        <v>1.016982030308742</v>
+        <v>1.017160163799162</v>
       </c>
       <c r="E19">
-        <v>1.00937158604045</v>
+        <v>1.009916689666441</v>
       </c>
       <c r="F19">
-        <v>1.015292161651054</v>
+        <v>1.015791382024081</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047115846345362</v>
+        <v>1.047222645563352</v>
       </c>
       <c r="J19">
-        <v>1.020615167949342</v>
+        <v>1.021180629735715</v>
       </c>
       <c r="K19">
-        <v>1.030450924543011</v>
+        <v>1.030626130349347</v>
       </c>
       <c r="L19">
-        <v>1.022966804538447</v>
+        <v>1.023502778516902</v>
       </c>
       <c r="M19">
-        <v>1.028788895200978</v>
+        <v>1.029279878890943</v>
       </c>
       <c r="N19">
-        <v>1.010311043080268</v>
+        <v>1.012567596596906</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032676767218187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032816823697516</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02044264954462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9915177918569265</v>
+        <v>0.9922741001820705</v>
       </c>
       <c r="D20">
-        <v>1.015698977086568</v>
+        <v>1.016040911434295</v>
       </c>
       <c r="E20">
-        <v>1.007759709195669</v>
+        <v>1.008454852289826</v>
       </c>
       <c r="F20">
-        <v>1.013514915762818</v>
+        <v>1.014163622729978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046569779971741</v>
+        <v>1.046762729071093</v>
       </c>
       <c r="J20">
-        <v>1.019379650096734</v>
+        <v>1.020106125586073</v>
       </c>
       <c r="K20">
-        <v>1.029471283831215</v>
+        <v>1.029807445591296</v>
       </c>
       <c r="L20">
-        <v>1.021667472115089</v>
+        <v>1.022350644845186</v>
       </c>
       <c r="M20">
-        <v>1.027324212796721</v>
+        <v>1.027961911488997</v>
       </c>
       <c r="N20">
-        <v>1.009886188920771</v>
+        <v>1.012339604272309</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031988056680042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032242305861569</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020258974649683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9851356629507007</v>
+        <v>0.9865669746771076</v>
       </c>
       <c r="D21">
-        <v>1.011437099811165</v>
+        <v>1.012404256287896</v>
       </c>
       <c r="E21">
-        <v>1.002412299349595</v>
+        <v>1.003713989948194</v>
       </c>
       <c r="F21">
-        <v>1.007619076428725</v>
+        <v>1.008870058975026</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04473513443225</v>
+        <v>1.045258231282518</v>
       </c>
       <c r="J21">
-        <v>1.015268275656521</v>
+        <v>1.016637262947506</v>
       </c>
       <c r="K21">
-        <v>1.02620498482742</v>
+        <v>1.027154376239526</v>
       </c>
       <c r="L21">
-        <v>1.017348113649621</v>
+        <v>1.018625339626809</v>
       </c>
       <c r="M21">
-        <v>1.022457526622463</v>
+        <v>1.023685311651683</v>
       </c>
       <c r="N21">
-        <v>1.00847000794735</v>
+        <v>1.011832963788368</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029681903180959</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030370077046725</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019668144508524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9810030022891719</v>
+        <v>0.9828759932462465</v>
       </c>
       <c r="D22">
-        <v>1.008677264486235</v>
+        <v>1.010052250075564</v>
       </c>
       <c r="E22">
-        <v>0.9989566678514722</v>
+        <v>1.000655807694802</v>
       </c>
       <c r="F22">
-        <v>1.003810330828839</v>
+        <v>1.005456131662999</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043530570239046</v>
+        <v>1.044268711898828</v>
       </c>
       <c r="J22">
-        <v>1.012600244946056</v>
+        <v>1.014386619646652</v>
       </c>
       <c r="K22">
-        <v>1.024078760941471</v>
+        <v>1.025427165976068</v>
       </c>
       <c r="L22">
-        <v>1.014548821728277</v>
+        <v>1.016214284092025</v>
       </c>
       <c r="M22">
-        <v>1.019306680357937</v>
+        <v>1.020920270904876</v>
       </c>
       <c r="N22">
-        <v>1.007547258068211</v>
+        <v>1.011490530670306</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028164957585076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.02913397514172</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019279488755821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9831897656278286</v>
+        <v>0.9848095566805674</v>
       </c>
       <c r="D23">
-        <v>1.010131658543745</v>
+        <v>1.011276793178907</v>
       </c>
       <c r="E23">
-        <v>1.000782405026881</v>
+        <v>1.002253027772405</v>
       </c>
       <c r="F23">
-        <v>1.005825017479602</v>
+        <v>1.007244057970931</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044165603396615</v>
+        <v>1.044782317220272</v>
       </c>
       <c r="J23">
-        <v>1.014007627561113</v>
+        <v>1.015554845945215</v>
       </c>
       <c r="K23">
-        <v>1.025196816502557</v>
+        <v>1.026320400628487</v>
       </c>
       <c r="L23">
-        <v>1.016025925709828</v>
+        <v>1.017468203458883</v>
       </c>
       <c r="M23">
-        <v>1.020971797625438</v>
+        <v>1.02236384274391</v>
       </c>
       <c r="N23">
-        <v>1.008030452091558</v>
+        <v>1.011621181914815</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028945770888094</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029754884482999</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019477231350972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,90 +1671,108 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9916002400625816</v>
+        <v>0.9923502684158774</v>
       </c>
       <c r="D24">
-        <v>1.015745257623553</v>
+        <v>1.016080453549099</v>
       </c>
       <c r="E24">
-        <v>1.007825995484019</v>
+        <v>1.008515865713155</v>
       </c>
       <c r="F24">
-        <v>1.013591542858671</v>
+        <v>1.014234821404025</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046587396129146</v>
+        <v>1.046776831775039</v>
       </c>
       <c r="J24">
-        <v>1.019425510472914</v>
+        <v>1.020146002036787</v>
       </c>
       <c r="K24">
-        <v>1.029501398047612</v>
+        <v>1.029830943023274</v>
       </c>
       <c r="L24">
-        <v>1.021717057723144</v>
+        <v>1.022395065605286</v>
       </c>
       <c r="M24">
-        <v>1.027384107079606</v>
+        <v>1.028016485538168</v>
       </c>
       <c r="N24">
-        <v>1.009896473301877</v>
+        <v>1.012342614831756</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031981800458144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032228705926143</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02026136597511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.000937613585806</v>
+        <v>1.00099896922734</v>
       </c>
       <c r="D25">
-        <v>1.021996266813652</v>
+        <v>1.021625567364648</v>
       </c>
       <c r="E25">
-        <v>1.015680485422061</v>
+        <v>1.015760678415228</v>
       </c>
       <c r="F25">
-        <v>1.022248143694055</v>
+        <v>1.022282040077291</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049219819855013</v>
+        <v>1.049039450046925</v>
       </c>
       <c r="J25">
-        <v>1.025433464442391</v>
+        <v>1.025492760779557</v>
       </c>
       <c r="K25">
-        <v>1.03426245236551</v>
+        <v>1.033897199791349</v>
       </c>
       <c r="L25">
-        <v>1.02804016277917</v>
+        <v>1.028119159416256</v>
       </c>
       <c r="M25">
-        <v>1.03451063115275</v>
+        <v>1.034544030040952</v>
       </c>
       <c r="N25">
-        <v>1.011965258117445</v>
+        <v>1.013747814947606</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035345255543931</v>
+        <v>1.035100570001168</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021179513283936</v>
       </c>
     </row>
   </sheetData>
